--- a/public/uploads/rekap-Gelombang PPDB.xlsx
+++ b/public/uploads/rekap-Gelombang PPDB.xlsx
@@ -4,85 +4,456 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="1.aaa" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="1.asdfasdfsdfsdf" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="2.Gelombang 1" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="3.gelombang 3" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="4.ini gelombang baru" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="5.coba baru" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="6.Gelombang 1" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>SMKN 26 Jakarta</t>
-  </si>
-  <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
-    <t>dibuka : 20-06-2021</t>
-  </si>
-  <si>
-    <t>ditutup : 28-06-2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="146">
+  <si>
+    <t>asdfasdfsdfsdf</t>
+  </si>
+  <si>
+    <t>SMK Smarteschool</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>dibuka : 21-04-2021</t>
+  </si>
+  <si>
+    <t>ditutup : 30-04-2021</t>
+  </si>
+  <si>
+    <t>Keterangan : Sudah Ditutup</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Norek</t>
+  </si>
+  <si>
+    <t>Nama Pemilih</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Bukti</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>NIPD</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Kelurahan</t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Kode Pos</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Data Ayah</t>
+  </si>
+  <si>
+    <t>Data Ibu</t>
+  </si>
+  <si>
+    <t>Data Wali</t>
+  </si>
+  <si>
+    <t>Kebutuhan Khusus</t>
+  </si>
+  <si>
+    <t>Sekolah Asal</t>
+  </si>
+  <si>
+    <t>Berat Badan</t>
+  </si>
+  <si>
+    <t>Tinggi Badan</t>
+  </si>
+  <si>
+    <t>Jurusan1</t>
+  </si>
+  <si>
+    <t>Jurusan2</t>
+  </si>
+  <si>
+    <t>Jurusan3</t>
+  </si>
+  <si>
+    <t>Jurusan4</t>
+  </si>
+  <si>
+    <t>Jurusan5</t>
+  </si>
+  <si>
+    <t>Pekerjaan</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1203012</t>
+  </si>
+  <si>
+    <t>13546</t>
+  </si>
+  <si>
+    <t>asdfsadf</t>
+  </si>
+  <si>
+    <t>asdfasdfasfd</t>
+  </si>
+  <si>
+    <t>DANAMON</t>
+  </si>
+  <si>
+    <t>798465431</t>
+  </si>
+  <si>
+    <t>asdfasfd</t>
+  </si>
+  <si>
+    <t>23424</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/smart-school-300211.appspot.com/o/1619378056106-Screen-Shot-2021-04-26-at-02.02.42.png?alt=media&amp;token=927f28f1-94c2-40d8-a3c6-c532c73fe5e4</t>
+  </si>
+  <si>
+    <t>Teknik Elektronika Daya dan Komunikasi</t>
+  </si>
+  <si>
+    <t>Ilmu Pengetahuan Sejarah</t>
+  </si>
+  <si>
+    <t>Akuntansi</t>
+  </si>
+  <si>
+    <t>bdf</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>asasdfasdfasdf</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>Jl. Karang Tengah Raya No.29, RT.4/RW.4, Lb. Bulus, Kec. Cilandak, Kota Jakarta Selatan, Daerah Khusus Ibukota Jakarta 12440</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1103012</t>
+  </si>
+  <si>
+    <t>13930</t>
+  </si>
+  <si>
+    <t>fdfasf</t>
+  </si>
+  <si>
+    <t>asdfasf</t>
+  </si>
+  <si>
+    <t>asdfasdfadfsdf</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>asdfasdfsd</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>jlkjlklj</t>
+  </si>
+  <si>
+    <t>123513513</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/smart-school-300211.appspot.com/o/1619615129156-Screen-Shot-2021-04-26-at-16.05.47.png?alt=media&amp;token=7674a2c7-86c4-4e9c-beb8-995fd6c1464f</t>
+  </si>
+  <si>
+    <t>Sistem Informatika Jaringan dan Aplikasi</t>
+  </si>
+  <si>
+    <t>Ilmu Pengetahuan Alam</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>Gelombang 1</t>
+  </si>
+  <si>
+    <t>dibuka : 29-04-2021</t>
+  </si>
+  <si>
+    <t>ditutup : 19-05-2021</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>Jl Swadaya</t>
+  </si>
+  <si>
+    <t>7206</t>
+  </si>
+  <si>
+    <t>7206030</t>
+  </si>
+  <si>
+    <t>SMP 1 Jatinom</t>
+  </si>
+  <si>
+    <t>DKI</t>
+  </si>
+  <si>
+    <t>3124468</t>
+  </si>
+  <si>
+    <t>Rochim</t>
+  </si>
+  <si>
+    <t>13929</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/smart-school-300211.appspot.com/o/1619793367525-Screenshot-2020-12-16-083826.png?alt=media&amp;token=553d8176-3b3c-4dff-8486-3b216e4314d0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>aasdfasdf</t>
+  </si>
+  <si>
+    <t>aaaaaf</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/smart-school-300211.appspot.com/o/1620308724986-DSCF1797.jpg?alt=media&amp;token=802e3c6b-92a6-4aae-ba95-631c6a0456d5</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>gelombang 3</t>
+  </si>
+  <si>
+    <t>dibuka : 26-05-2021</t>
+  </si>
+  <si>
+    <t>ditutup : 29-05-2021</t>
+  </si>
+  <si>
+    <t>Diunduh tanggal 24,June,2021 oleh Admin SMK Smarteschool</t>
+  </si>
+  <si>
+    <t>ini gelombang baru</t>
+  </si>
+  <si>
+    <t>dibuka : 18-05-2021</t>
+  </si>
+  <si>
+    <t>ditutup : 26-05-2021</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>Kendall Jenner</t>
+  </si>
+  <si>
+    <t>087884670975</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>asdfsdfasf</t>
+  </si>
+  <si>
+    <t>234234</t>
+  </si>
+  <si>
+    <t>coba baru</t>
+  </si>
+  <si>
+    <t>ditutup : 20-05-2021</t>
+  </si>
+  <si>
+    <t>dibuka : 20-05-2021</t>
+  </si>
+  <si>
+    <t>ditutup : 06-08-2021</t>
   </si>
   <si>
     <t>Keterangan : Daftar</t>
   </si>
   <si>
-    <t>Diunduh tanggal 21,June,2021 oleh Admin SMKN 26</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Whatsapp</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>Norek</t>
-  </si>
-  <si>
-    <t>Nama Pemilih</t>
-  </si>
-  <si>
-    <t>Nominal</t>
-  </si>
-  <si>
-    <t>Bukti</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>adf</t>
-  </si>
-  <si>
-    <t>118</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1304060</t>
+  </si>
+  <si>
+    <t>adfad</t>
+  </si>
+  <si>
+    <t>asfas</t>
+  </si>
+  <si>
+    <t>asfa</t>
+  </si>
+  <si>
+    <t>adsfsa</t>
+  </si>
+  <si>
+    <t>asdfas</t>
+  </si>
+  <si>
+    <t>muhammad zahid</t>
+  </si>
+  <si>
+    <t>085704868842</t>
+  </si>
+  <si>
+    <t>002371412</t>
+  </si>
+  <si>
+    <t>jati sari</t>
+  </si>
+  <si>
+    <t>3505</t>
+  </si>
+  <si>
+    <t>3505020</t>
+  </si>
+  <si>
+    <t>12415</t>
+  </si>
+  <si>
+    <t>sdadasf</t>
+  </si>
+  <si>
+    <t>asfasf</t>
+  </si>
+  <si>
+    <t>khatimah</t>
+  </si>
+  <si>
+    <t>sdajdb</t>
+  </si>
+  <si>
+    <t>241515</t>
+  </si>
+  <si>
+    <t>53151</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/smart-school-300211.appspot.com/o/1623911117993-Contoh-X-Banner-Design-dengan-Ukuran-X-Banner.jpg?alt=media&amp;token=c4b84fa5-474e-45b8-93da-b936a8823962</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>yadi</t>
+  </si>
+  <si>
+    <t>0852174553</t>
   </si>
 </sst>
 </file>
@@ -124,7 +495,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="C0C0C0"/>
+        </patternFill>
+      </fill>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <font>
+        <family val="4"/>
+        <sz val="11"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="C0C0C0"/>
+        </patternFill>
+      </fill>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <font>
+        <family val="4"/>
+        <sz val="11"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
       <font>
@@ -167,6 +610,159 @@
       <font>
         <family val="4"/>
         <sz val="11"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="16"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="16"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="C0C0C0"/>
+        </patternFill>
+      </fill>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <font>
+        <family val="4"/>
+        <sz val="11"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="16"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="16"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="C0C0C0"/>
+        </patternFill>
+      </fill>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <font>
+        <family val="4"/>
+        <sz val="11"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="C0C0C0"/>
+        </patternFill>
+      </fill>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+      <border>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+      <font>
+        <family val="4"/>
+        <sz val="11"/>
+        <name val="Times New Roman"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <font>
+        <b/>
+        <family val="4"/>
+        <sz val="16"/>
         <name val="Times New Roman"/>
       </font>
     </dxf>
@@ -505,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:AI15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +1117,33 @@
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -535,8 +1156,33 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -549,8 +1195,33 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -563,8 +1234,33 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -577,8 +1273,33 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -591,94 +1312,3071 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>23</v>
       </c>
-      <c r="J10">
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12">
+        <v>123</v>
+      </c>
+      <c r="X12">
+        <v>123</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD12">
         <v>0</v>
       </c>
+      <c r="AE12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13">
+        <v>123</v>
+      </c>
+      <c r="X13">
+        <v>123</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
+  <mergeCells count="38">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:AI5"/>
+    <mergeCell ref="A6:AI6"/>
+    <mergeCell ref="A7:AI7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:I3">
+  <conditionalFormatting sqref="A10:AI11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW()+COLUMN(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:J9">
+  <conditionalFormatting sqref="A12:AI12">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW()+COLUMN(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:J10">
+  <conditionalFormatting sqref="A10:AI11">
     <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:AI13">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I3">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:AI5"/>
+    <mergeCell ref="A6:AI6"/>
+    <mergeCell ref="A7:AI7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A10:AI11">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:AI12">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I3">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI11"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="P10"/>
+      <c r="R10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:AI5"/>
+    <mergeCell ref="A6:AI6"/>
+    <mergeCell ref="A7:AI7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:I3">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" t="s">
+        <v>91</v>
+      </c>
+      <c r="W13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:AI5"/>
+    <mergeCell ref="A6:AI6"/>
+    <mergeCell ref="A7:AI7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A10:AI11">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:AI15">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I3">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI11"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="P10"/>
+      <c r="R10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:AI5"/>
+    <mergeCell ref="A6:AI6"/>
+    <mergeCell ref="A7:AI7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:I3">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" t="s">
+        <v>126</v>
+      </c>
+      <c r="V13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R14" t="s">
+        <v>136</v>
+      </c>
+      <c r="V14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:AI5"/>
+    <mergeCell ref="A6:AI6"/>
+    <mergeCell ref="A7:AI7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A10:AI11">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:AI15">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:AI11">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:AI16">
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>MOD(ROW()+COLUMN(),1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I3">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>MOD(ROW()+COLUMN(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
